--- a/1-tools/site-building/USEFUL-COMMANDS/Book1.xlsx
+++ b/1-tools/site-building/USEFUL-COMMANDS/Book1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MY-WEB-DEV\08-my-website\Stable\1-tools\site-building\USEFUL-COMMANDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A09DE944-70C9-4F53-BC20-53829FE957AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB4DE11-775A-4151-AE21-3AFCD690DCDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{2D89AFF5-E62B-40FB-A1FB-7EE051ED9CC0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="bash" sheetId="1" r:id="rId1"/>
+    <sheet name="General-Utility-Bash" sheetId="3" r:id="rId2"/>
+    <sheet name="Cmd-power-shell" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,6 +33,53 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>Clean-Git-Repo</t>
+  </si>
+  <si>
+    <t>find . -empty -type f -print -delete
+find . -empty -type d -print -delete
+find . \( -name ".git" -o -name ".gitignore" -o -name ".gitmodules" -o -name ".gitattributes" \) -exec rm -rf -- {} +
+                                                                                                                                                                                                                                   find . \( -name "*SECURITY.txt" -o -name "*RELEASE.txt" -o  -name "*CHANGELOG.txt" -o -name "*LICENSE.txt" -o -name "*CONTRIBUTING.txt" -name "*HISTORY.md" -o -name "*LICENSE" -o -name "*SECURITY.md" -o -name "*RELEASE.md" -o  -name "*CHANGELOG.md" -o -name "*LICENSE.md" -o -name "*CODE_OF_CONDUCT.md" -o -name "*CONTRIBUTING.md" \) -exec rm -rf -- {} +</t>
+  </si>
+  <si>
+    <t>Remove Node Modules</t>
+  </si>
+  <si>
+    <t>find . -name 'node_modules' -type d -prune -exec rm -rf '{}' +</t>
+  </si>
+  <si>
+    <t>find . -name '.vscode' -type d -prune -exec rm -rf '{}' +</t>
+  </si>
+  <si>
+    <t>Download videos from youtube channel</t>
+  </si>
+  <si>
+    <t>youtube-dl https://www.youtube.com/user/Mihirishere/videos</t>
+  </si>
+  <si>
+    <t>youtube-dl https://www.youtube.com/user/&lt;ChannelName&gt;/videos</t>
+  </si>
+  <si>
+    <t>Remove duplicate lines from a text file</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -52,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -60,12 +109,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +510,2534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE367BC-B036-49E9-893A-61B444F2536D}">
-  <dimension ref="A1"/>
+  <dimension ref="C1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="49.28515625" customWidth="1"/>
+    <col min="5" max="5" width="100.5703125" customWidth="1"/>
+    <col min="6" max="6" width="54.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="6">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="6">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="6">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="6">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="6">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="6">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="6">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="6">
+        <v>13</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="6">
+        <v>14</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="6">
+        <v>15</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="6">
+        <v>16</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="6">
+        <v>17</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="6">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="6">
+        <v>19</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="6">
+        <v>20</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="6">
+        <v>21</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="6">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="6">
+        <v>23</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="6">
+        <v>24</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="6">
+        <v>25</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="6">
+        <v>26</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="6">
+        <v>27</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="6">
+        <v>28</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="6">
+        <v>29</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="6">
+        <v>30</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="6">
+        <v>31</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="6">
+        <v>32</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="6">
+        <v>33</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="6">
+        <v>34</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="6">
+        <v>35</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="6">
+        <v>36</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="6">
+        <v>37</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="6">
+        <v>38</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="6">
+        <v>39</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="6">
+        <v>40</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="6">
+        <v>41</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="6">
+        <v>42</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="6">
+        <v>43</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="6">
+        <v>44</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="6">
+        <v>45</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="6">
+        <v>46</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="6">
+        <v>47</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="6">
+        <v>48</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="6">
+        <v>49</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="6">
+        <v>50</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="6">
+        <v>51</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="6">
+        <v>52</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="6">
+        <v>53</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="6">
+        <v>54</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="6">
+        <v>55</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="6">
+        <v>56</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="6">
+        <v>57</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="6">
+        <v>58</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="6">
+        <v>59</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="6">
+        <v>60</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="6">
+        <v>61</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="6">
+        <v>62</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="6">
+        <v>63</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="6">
+        <v>64</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="6">
+        <v>65</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="6">
+        <v>66</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="6">
+        <v>67</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C70" s="6">
+        <v>68</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="6">
+        <v>69</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C72" s="6">
+        <v>70</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="6">
+        <v>71</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C74" s="6">
+        <v>72</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="6">
+        <v>73</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C76" s="6">
+        <v>74</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C77" s="6">
+        <v>75</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C78" s="6">
+        <v>76</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C79" s="6">
+        <v>77</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C80" s="6">
+        <v>78</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81" s="6">
+        <v>79</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="6">
+        <v>80</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="6">
+        <v>81</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="6">
+        <v>82</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C85" s="6">
+        <v>83</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C86" s="6">
+        <v>84</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C87" s="6">
+        <v>85</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C88" s="6">
+        <v>86</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C89" s="6">
+        <v>87</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C90" s="6">
+        <v>88</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C91" s="6">
+        <v>89</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C92" s="6">
+        <v>90</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C93" s="6">
+        <v>91</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C94" s="6">
+        <v>92</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C95" s="6">
+        <v>93</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C96" s="6">
+        <v>94</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C97" s="6">
+        <v>95</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C98" s="6">
+        <v>96</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C99" s="6">
+        <v>97</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C100" s="6">
+        <v>98</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C101" s="6">
+        <v>99</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C102" s="6">
+        <v>100</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C103" s="1">
+        <v>101</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286B21F4-04FA-4895-9964-4D4090A6C9AB}">
+  <dimension ref="C2:F103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="95.85546875" customWidth="1"/>
+    <col min="6" max="6" width="70.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="6">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="6">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="6">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="6">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="6">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="6">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="6">
+        <v>12</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="6">
+        <v>13</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="6">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="6">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="6">
+        <v>16</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="6">
+        <v>17</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="6">
+        <v>18</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="6">
+        <v>19</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="6">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="6">
+        <v>21</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="6">
+        <v>22</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="6">
+        <v>23</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="6">
+        <v>24</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="6">
+        <v>25</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="6">
+        <v>26</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="6">
+        <v>27</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="6">
+        <v>28</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="6">
+        <v>29</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="6">
+        <v>30</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="6">
+        <v>31</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="6">
+        <v>32</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="6">
+        <v>33</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="6">
+        <v>34</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="6">
+        <v>35</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="6">
+        <v>36</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="6">
+        <v>37</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="6">
+        <v>38</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="6">
+        <v>39</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="6">
+        <v>40</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="6">
+        <v>41</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="6">
+        <v>42</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="6">
+        <v>43</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="6">
+        <v>44</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="6">
+        <v>45</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="6">
+        <v>46</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="6">
+        <v>47</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="6">
+        <v>48</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="6">
+        <v>49</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="6">
+        <v>50</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="6">
+        <v>51</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="6">
+        <v>52</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="6">
+        <v>53</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="6">
+        <v>54</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="6">
+        <v>55</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="6">
+        <v>56</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="6">
+        <v>57</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="6">
+        <v>58</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="6">
+        <v>59</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="6">
+        <v>60</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="6">
+        <v>61</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="6">
+        <v>62</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="6">
+        <v>63</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="6">
+        <v>64</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="6">
+        <v>65</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="6">
+        <v>66</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C70" s="6">
+        <v>67</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="6">
+        <v>68</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C72" s="6">
+        <v>69</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="6">
+        <v>70</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C74" s="6">
+        <v>71</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="6">
+        <v>72</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C76" s="6">
+        <v>73</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C77" s="6">
+        <v>74</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C78" s="6">
+        <v>75</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C79" s="6">
+        <v>76</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C80" s="6">
+        <v>77</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81" s="6">
+        <v>78</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="6">
+        <v>79</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="6">
+        <v>80</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="6">
+        <v>81</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C85" s="6">
+        <v>82</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C86" s="6">
+        <v>83</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C87" s="6">
+        <v>84</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C88" s="6">
+        <v>85</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C89" s="6">
+        <v>86</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C90" s="6">
+        <v>87</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C91" s="6">
+        <v>88</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C92" s="6">
+        <v>89</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C93" s="6">
+        <v>90</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C94" s="6">
+        <v>91</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C95" s="6">
+        <v>92</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C96" s="6">
+        <v>93</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C97" s="6">
+        <v>94</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C98" s="6">
+        <v>95</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C99" s="6">
+        <v>96</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C100" s="6">
+        <v>97</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C101" s="6">
+        <v>98</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C102" s="6">
+        <v>99</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C103" s="6">
+        <v>100</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E15D60-74DA-40D9-90A1-E0B1AF98345C}">
+  <dimension ref="C2:F103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="100.85546875" customWidth="1"/>
+    <col min="6" max="6" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="6">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="6">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="6">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="6">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="6">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="6">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="6">
+        <v>12</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="6">
+        <v>13</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="6">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="6">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="6">
+        <v>16</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="6">
+        <v>17</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="6">
+        <v>18</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="6">
+        <v>19</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="6">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="6">
+        <v>21</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="6">
+        <v>22</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="6">
+        <v>23</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="6">
+        <v>24</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="6">
+        <v>25</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="6">
+        <v>26</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="6">
+        <v>27</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="6">
+        <v>28</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="6">
+        <v>29</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="6">
+        <v>30</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="6">
+        <v>31</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="6">
+        <v>32</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="6">
+        <v>33</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="6">
+        <v>34</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="6">
+        <v>35</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="6">
+        <v>36</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="6">
+        <v>37</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="6">
+        <v>38</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="6">
+        <v>39</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="6">
+        <v>40</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="6">
+        <v>41</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="6">
+        <v>42</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="6">
+        <v>43</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="6">
+        <v>44</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="6">
+        <v>45</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="6">
+        <v>46</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="6">
+        <v>47</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="6">
+        <v>48</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="6">
+        <v>49</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="6">
+        <v>50</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="6">
+        <v>51</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="6">
+        <v>52</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="6">
+        <v>53</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="6">
+        <v>54</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="6">
+        <v>55</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="6">
+        <v>56</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="6">
+        <v>57</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="6">
+        <v>58</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="6">
+        <v>59</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="6">
+        <v>60</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="6">
+        <v>61</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="6">
+        <v>62</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="6">
+        <v>63</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="6">
+        <v>64</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="6">
+        <v>65</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="6">
+        <v>66</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C70" s="6">
+        <v>67</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="6">
+        <v>68</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C72" s="6">
+        <v>69</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="6">
+        <v>70</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C74" s="6">
+        <v>71</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="6">
+        <v>72</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C76" s="6">
+        <v>73</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C77" s="6">
+        <v>74</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C78" s="6">
+        <v>75</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C79" s="6">
+        <v>76</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C80" s="6">
+        <v>77</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81" s="6">
+        <v>78</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="6">
+        <v>79</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="6">
+        <v>80</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="6">
+        <v>81</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C85" s="6">
+        <v>82</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C86" s="6">
+        <v>83</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C87" s="6">
+        <v>84</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C88" s="6">
+        <v>85</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C89" s="6">
+        <v>86</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C90" s="6">
+        <v>87</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C91" s="6">
+        <v>88</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C92" s="6">
+        <v>89</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C93" s="6">
+        <v>90</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C94" s="6">
+        <v>91</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C95" s="6">
+        <v>92</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C96" s="6">
+        <v>93</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C97" s="6">
+        <v>94</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C98" s="6">
+        <v>95</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C99" s="6">
+        <v>96</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C100" s="6">
+        <v>97</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C101" s="6">
+        <v>98</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C102" s="6">
+        <v>99</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C103" s="6">
+        <v>100</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>